--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -475,11 +475,71 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>12/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Leite</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>blz</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Leite</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02/2024</t>
         </is>
       </c>
     </row>
